--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,10 +262,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,11 +866,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="150372592"/>
-        <c:axId val="150371416"/>
+        <c:axId val="519842952"/>
+        <c:axId val="518319552"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="150372592"/>
+        <c:axId val="519842952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150371416"/>
+        <c:crossAx val="518319552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150371416"/>
+        <c:axId val="518319552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150372592"/>
+        <c:crossAx val="519842952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8488,16 +8491,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -8535,7 +8539,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>9830.6899999999987</v>
+        <v>10416.069999999998</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8551,15 +8555,15 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>19620</v>
+        <v>20835</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>50.11</v>
+        <v>49.99</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
-        <v>6.42</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8576,11 +8580,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E38" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E40" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F38" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F40" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8588,11 +8592,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H38" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H40" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I38" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I40" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8618,7 +8622,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G38" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G40" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -9784,6 +9788,74 @@
       <c r="I38" s="2">
         <f t="shared" si="3"/>
         <v>6.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>45605</v>
+      </c>
+      <c r="B39" s="2">
+        <v>277.57</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7.41</v>
+      </c>
+      <c r="D39" s="2">
+        <v>31834</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>11186.949999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>37.46</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="4"/>
+        <v>581</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="2"/>
+        <v>47.77</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>45623</v>
+      </c>
+      <c r="B40" s="2">
+        <v>307.81</v>
+      </c>
+      <c r="C40" s="2">
+        <v>7.41</v>
+      </c>
+      <c r="D40" s="2">
+        <v>32468</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>11494.759999999998</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>41.54</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="4"/>
+        <v>634</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
+        <v>48.55</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>6.55</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,11 +866,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="519842952"/>
-        <c:axId val="518319552"/>
+        <c:axId val="475419528"/>
+        <c:axId val="475417960"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="519842952"/>
+        <c:axId val="475419528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518319552"/>
+        <c:crossAx val="475417960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518319552"/>
+        <c:axId val="475417960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519842952"/>
+        <c:crossAx val="475419528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8491,11 +8491,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>10416.069999999998</v>
+        <v>10704.829999999998</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8555,15 +8555,15 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>20835</v>
+        <v>21405</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.99</v>
+        <v>50.01</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
-        <v>6.43</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8580,11 +8580,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E40" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E41" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F40" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F41" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8592,11 +8592,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H40" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H41" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I40" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I41" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G40" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G41" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -9856,6 +9856,40 @@
       <c r="I40" s="2">
         <f t="shared" si="3"/>
         <v>6.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>45641</v>
+      </c>
+      <c r="B41" s="2">
+        <v>288.76</v>
+      </c>
+      <c r="C41" s="2">
+        <v>7.41</v>
+      </c>
+      <c r="D41" s="2">
+        <v>33038</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>11783.519999999999</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>38.97</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="2"/>
+        <v>50.66</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>6.84</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -866,11 +866,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="475419528"/>
-        <c:axId val="475417960"/>
+        <c:axId val="151568136"/>
+        <c:axId val="491226168"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="475419528"/>
+        <c:axId val="151568136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475417960"/>
+        <c:crossAx val="491226168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475417960"/>
+        <c:axId val="491226168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475419528"/>
+        <c:crossAx val="151568136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8491,11 +8491,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>10704.829999999998</v>
+        <v>11004.069999999998</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8555,11 +8555,11 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>21405</v>
+        <v>22014</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>50.01</v>
+        <v>49.99</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
@@ -8580,11 +8580,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E41" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E42" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F41" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F42" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8592,11 +8592,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H41" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H42" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I41" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I42" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G41" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G42" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -9890,6 +9890,40 @@
       <c r="I41" s="2">
         <f t="shared" si="3"/>
         <v>6.84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>45660</v>
+      </c>
+      <c r="B42" s="2">
+        <v>299.24</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="D42" s="2">
+        <v>33647</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>12082.759999999998</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>40.06</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="4"/>
+        <v>609</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="2"/>
+        <v>49.14</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>6.58</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,11 +866,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="151568136"/>
-        <c:axId val="491226168"/>
+        <c:axId val="490892592"/>
+        <c:axId val="490888280"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="151568136"/>
+        <c:axId val="490892592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491226168"/>
+        <c:crossAx val="490888280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491226168"/>
+        <c:axId val="490888280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151568136"/>
+        <c:crossAx val="490892592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8491,11 +8491,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>11004.069999999998</v>
+        <v>12015.779999999997</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8555,15 +8555,15 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>22014</v>
+        <v>24088</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.99</v>
+        <v>49.88</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
-        <v>6.44</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8580,11 +8580,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E42" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E47" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F42" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F47" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8592,11 +8592,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H42" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H47" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I42" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I47" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G42" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G47" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -9924,6 +9924,176 @@
       <c r="I42" s="2">
         <f t="shared" si="3"/>
         <v>6.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>45673</v>
+      </c>
+      <c r="B43" s="2">
+        <v>214.23</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="D43" s="2">
+        <v>34062</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>12296.989999999998</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>28.68</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="4"/>
+        <v>415</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="2"/>
+        <v>51.62</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>45679</v>
+      </c>
+      <c r="B44" s="2">
+        <v>184.91</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="D44" s="2">
+        <v>34479</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>12481.899999999998</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>23.89</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="4"/>
+        <v>417</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="2"/>
+        <v>44.34</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>45681</v>
+      </c>
+      <c r="B45" s="2">
+        <v>299.20999999999998</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="D45" s="2">
+        <v>35123</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>12781.109999999997</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>38.46</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="4"/>
+        <v>644</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="2"/>
+        <v>46.46</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="3"/>
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>45690</v>
+      </c>
+      <c r="B46" s="2">
+        <v>113.19</v>
+      </c>
+      <c r="C46" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="D46" s="2">
+        <v>35314</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>12894.299999999997</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>14.55</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="2"/>
+        <v>59.26</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="3"/>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>45691</v>
+      </c>
+      <c r="B47" s="2">
+        <v>200.17</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="D47" s="2">
+        <v>35721</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>13094.469999999998</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>25.93</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="4"/>
+        <v>407</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="2"/>
+        <v>49.18</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="3"/>
+        <v>6.37</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8295" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,11 +866,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="490892592"/>
-        <c:axId val="490888280"/>
+        <c:axId val="501380736"/>
+        <c:axId val="501381128"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="490892592"/>
+        <c:axId val="501380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490888280"/>
+        <c:crossAx val="501381128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490888280"/>
+        <c:axId val="501381128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490892592"/>
+        <c:crossAx val="501380736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8491,11 +8491,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>12015.779999999997</v>
+        <v>12329.789999999997</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8555,11 +8555,11 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>24088</v>
+        <v>24743</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.88</v>
+        <v>49.83</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
@@ -8580,11 +8580,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E47" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E48" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F47" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F48" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8592,11 +8592,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H47" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H48" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I47" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I48" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G47" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G48" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -10094,6 +10094,40 @@
       <c r="I47" s="2">
         <f t="shared" si="3"/>
         <v>6.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>45699</v>
+      </c>
+      <c r="B48" s="2">
+        <v>314.01</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="D48" s="2">
+        <v>36376</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>13408.479999999998</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>40.57</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="4"/>
+        <v>655</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="2"/>
+        <v>47.94</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="3"/>
+        <v>6.19</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -866,11 +866,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="501380736"/>
-        <c:axId val="501381128"/>
+        <c:axId val="475651872"/>
+        <c:axId val="475654616"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="501380736"/>
+        <c:axId val="475651872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501381128"/>
+        <c:crossAx val="475654616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501381128"/>
+        <c:axId val="475654616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501380736"/>
+        <c:crossAx val="475651872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8491,11 +8491,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>12329.789999999997</v>
+        <v>12942.199999999997</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8555,15 +8555,15 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>24743</v>
+        <v>25887</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.83</v>
+        <v>49.99</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
-        <v>6.43</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8580,11 +8580,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E48" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E50" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F48" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F50" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8592,11 +8592,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H48" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H50" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I48" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I50" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G48" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G50" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -10128,6 +10128,74 @@
       <c r="I48" s="2">
         <f t="shared" si="3"/>
         <v>6.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B49" s="2">
+        <v>312.95999999999998</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>36933</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>13721.439999999997</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>41.18</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="4"/>
+        <v>557</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="2"/>
+        <v>56.19</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="3"/>
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>45731</v>
+      </c>
+      <c r="B50" s="2">
+        <v>299.45</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7.49</v>
+      </c>
+      <c r="D50" s="2">
+        <v>37520</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>14020.889999999998</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="4"/>
+        <v>587</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="2"/>
+        <v>51.01</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="3"/>
+        <v>6.81</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,11 +866,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="475651872"/>
-        <c:axId val="475654616"/>
+        <c:axId val="497996656"/>
+        <c:axId val="497993912"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="475651872"/>
+        <c:axId val="497996656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475654616"/>
+        <c:crossAx val="497993912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475654616"/>
+        <c:axId val="497993912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475651872"/>
+        <c:crossAx val="497996656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8491,11 +8491,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>12942.199999999997</v>
+        <v>13230.519999999997</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8555,11 +8555,11 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>25887</v>
+        <v>26471</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.99</v>
+        <v>49.98</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
@@ -8580,11 +8580,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E50" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E51" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F50" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F51" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8592,11 +8592,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H50" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H51" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I50" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I51" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G50" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G51" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -10196,6 +10196,40 @@
       <c r="I50" s="2">
         <f t="shared" si="3"/>
         <v>6.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>45749</v>
+      </c>
+      <c r="B51" s="2">
+        <v>288.32</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7.27</v>
+      </c>
+      <c r="D51" s="2">
+        <v>38104</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="0"/>
+        <v>14309.209999999997</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>39.659999999999997</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="4"/>
+        <v>584</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="2"/>
+        <v>49.37</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="3"/>
+        <v>6.79</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -262,13 +262,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,11 +869,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="497996656"/>
-        <c:axId val="497993912"/>
+        <c:axId val="458443088"/>
+        <c:axId val="458443480"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="497996656"/>
+        <c:axId val="458443088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +916,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497993912"/>
+        <c:crossAx val="458443480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497993912"/>
+        <c:axId val="458443480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497996656"/>
+        <c:crossAx val="458443088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8491,11 +8494,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8539,7 +8542,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>13230.519999999997</v>
+        <v>13413.349999999997</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8555,7 +8558,7 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>26471</v>
+        <v>26836</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
@@ -8563,7 +8566,7 @@
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
-        <v>6.46</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8580,11 +8583,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E51" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E52" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F51" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F52" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8592,11 +8595,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H51" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H52" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I51" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I52" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8622,7 +8625,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G51" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G52" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -10231,6 +10234,72 @@
         <f t="shared" si="3"/>
         <v>6.79</v>
       </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>45765</v>
+      </c>
+      <c r="B52" s="2">
+        <v>182.83</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="D52" s="2">
+        <v>38469</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>14492.039999999997</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>25.86</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="2"/>
+        <v>50.09</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="3"/>
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>45777</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -869,11 +869,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="458443088"/>
-        <c:axId val="458443480"/>
+        <c:axId val="475206720"/>
+        <c:axId val="475207896"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="458443088"/>
+        <c:axId val="475206720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,14 +916,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458443480"/>
+        <c:crossAx val="475207896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458443480"/>
+        <c:axId val="475207896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458443088"/>
+        <c:crossAx val="475206720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8498,7 +8498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>13413.349999999997</v>
+        <v>13635.479999999996</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8558,15 +8558,15 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>26836</v>
+        <v>27289</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.98</v>
+        <v>49.97</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
-        <v>6.47</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -8583,11 +8583,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E52" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E53" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F52" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F53" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8595,11 +8595,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H52" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H53" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I52" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I53" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G52" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G53" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -10271,10 +10271,36 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>45777</v>
+        <v>45778</v>
+      </c>
+      <c r="B53" s="2">
+        <v>222.13</v>
       </c>
       <c r="C53" s="2">
         <v>7.07</v>
+      </c>
+      <c r="D53" s="2">
+        <v>38922</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="0"/>
+        <v>14714.169999999996</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>31.42</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="4"/>
+        <v>453</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="2"/>
+        <v>49.04</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>6.94</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8295" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,11 +869,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="475206720"/>
-        <c:axId val="475207896"/>
+        <c:axId val="501779816"/>
+        <c:axId val="506137224"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="475206720"/>
+        <c:axId val="501779816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,14 +916,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475207896"/>
+        <c:crossAx val="506137224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475207896"/>
+        <c:axId val="506137224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475206720"/>
+        <c:crossAx val="501779816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8498,7 +8498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>13635.479999999996</v>
+        <v>13908.249999999996</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8558,11 +8558,11 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>27289</v>
+        <v>27901</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.97</v>
+        <v>49.85</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
@@ -8583,11 +8583,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E53" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E54" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F53" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F54" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8595,11 +8595,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H53" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H54" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I53" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I54" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G53" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G54" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -10304,7 +10304,38 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3">
+        <v>45797</v>
+      </c>
+      <c r="B54" s="2">
+        <v>272.77</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="D54" s="2">
+        <v>39534</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="0"/>
+        <v>14986.939999999997</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>39.590000000000003</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="4"/>
+        <v>612</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="2"/>
+        <v>44.57</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="3"/>
+        <v>6.47</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -869,11 +869,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="501779816"/>
-        <c:axId val="506137224"/>
+        <c:axId val="502290568"/>
+        <c:axId val="502287824"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="501779816"/>
+        <c:axId val="502290568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,14 +916,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506137224"/>
+        <c:crossAx val="502287824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506137224"/>
+        <c:axId val="502287824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501779816"/>
+        <c:crossAx val="502290568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8498,7 +8498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B2" s="2">
         <f>INDEX(E:E, COUNTA(E:E)) - E2</f>
-        <v>13908.249999999996</v>
+        <v>14113.639999999996</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -8558,11 +8558,11 @@
       </c>
       <c r="G2" s="2">
         <f>INDEX(D:D, COUNTA(D:D)) - D2</f>
-        <v>27901</v>
+        <v>28386</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(100*B2/G2, 2)</f>
-        <v>49.85</v>
+        <v>49.72</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(100*SUM(F3:INDEX(F:F, COUNTA(F:F)))/G2, 2)</f>
@@ -8583,11 +8583,11 @@
         <v>12060</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E54" si="0">B3+E2</f>
+        <f t="shared" ref="E3:E55" si="0">B3+E2</f>
         <v>1257.27</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F54" si="1">ROUND(B3/C3,2)</f>
+        <f t="shared" ref="F3:F55" si="1">ROUND(B3/C3,2)</f>
         <v>24.1</v>
       </c>
       <c r="G3" s="2">
@@ -8595,11 +8595,11 @@
         <v>427</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H54" si="2">ROUND(B3*100/G3,2)</f>
+        <f t="shared" ref="H3:H55" si="2">ROUND(B3*100/G3,2)</f>
         <v>41.82</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I54" si="3">ROUND(B3*100/(G3*C3),2)</f>
+        <f t="shared" ref="I3:I55" si="3">ROUND(B3*100/(G3*C3),2)</f>
         <v>5.64</v>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
         <v>41.75</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G54" si="4">D4-D3</f>
+        <f t="shared" ref="G4:G55" si="4">D4-D3</f>
         <v>714</v>
       </c>
       <c r="H4" s="2">
@@ -10338,7 +10338,38 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
+      <c r="A55" s="3">
+        <v>45811</v>
+      </c>
+      <c r="B55" s="2">
+        <v>205.39</v>
+      </c>
+      <c r="C55" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="D55" s="2">
+        <v>40019</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="0"/>
+        <v>15192.329999999996</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="1"/>
+        <v>29.81</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="2"/>
+        <v>42.35</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="3"/>
+        <v>6.15</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
